--- a/experiments/Car-LibSVM/complexity.xlsx
+++ b/experiments/Car-LibSVM/complexity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aydin\Desktop\GaTech\CS7641\Assignments\CS7641Git\CS7641\experiments\LibSVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aydin\Desktop\GaTech\CS7641\Assignments\CS7641Public\CS7641\experiments\Car-LibSVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,10 +56,10 @@
     <t>1/maxIndex</t>
   </si>
   <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
     <t xml:space="preserve">degree </t>
+  </si>
+  <si>
+    <t>Coeff</t>
   </si>
 </sst>
 </file>
@@ -383,15 +383,15 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
@@ -401,13 +401,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
